--- a/AAAGameData/DataTables/VehiclePartTable.xlsx
+++ b/AAAGameData/DataTables/VehiclePartTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>#</t>
   </si>
@@ -122,6 +122,9 @@
   <si>
     <t>PART_NAME.BEI_NAI_LI</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
   </si>
 </sst>
 </file>
@@ -458,7 +461,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,10 +530,10 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
         <v>6</v>

--- a/AAAGameData/DataTables/VehiclePartTable.xlsx
+++ b/AAAGameData/DataTables/VehiclePartTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>#</t>
   </si>
@@ -80,14 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Performance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PartType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,6 +117,30 @@
   </si>
   <si>
     <t>float</t>
+  </si>
+  <si>
+    <t>动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acceleration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -458,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,12 +487,12 @@
     <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -495,7 +511,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -504,16 +520,22 @@
         <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -530,19 +552,25 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
         <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -562,24 +590,30 @@
         <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -587,23 +621,29 @@
       <c r="G5">
         <v>999</v>
       </c>
-      <c r="H5">
-        <v>999</v>
+      <c r="H5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>23</v>
+      <c r="J5" s="1">
+        <v>28</v>
+      </c>
+      <c r="K5" s="1">
+        <v>28</v>
+      </c>
+      <c r="L5" s="1">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" sqref="D3:Z3">
+    <dataValidation type="list" sqref="D3:Y3">
       <formula1>"int,enum,double,string[],float,string,bool,uint,short,Vector2[],Vector3Int[],Vector3Int,Vector3,Vector4[],int4,Vector2,int4[],Vector4,Color32,Color,Vector3[],Vector2Int,Vector2Int[],float[],int[],bool[],long[],double[],ushort,ulong,bool[][],decimal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D1:Z1">
+    <dataValidation type="list" allowBlank="1" sqref="D1:Y1">
       <formula1>"i18n"</formula1>
     </dataValidation>
   </dataValidations>

--- a/AAAGameData/DataTables/VehiclePartTable.xlsx
+++ b/AAAGameData/DataTables/VehiclePartTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>#</t>
   </si>
@@ -100,7 +100,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Entity/BeiNaiLi</t>
+    <t>float</t>
+  </si>
+  <si>
+    <t>动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acceleration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倍耐力轮胎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PART_NAME.BEI_NAI_LI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PART_NAME.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CHE_KE</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -108,38 +157,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Part/BeiNaiLi.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PART_NAME.BEI_NAI_LI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>动力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>制动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Acceleration</t>
+    <t>VehiclePartTypeEnum.CheKe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity/VehicleParts/0/BeiNaiLi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity/VehicleParts/0/CheKe1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parts/0/BeiNaiLi.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parts/0/CheKe1.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,20 +508,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -526,13 +561,13 @@
         <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -552,7 +587,7 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -561,13 +596,13 @@
         <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -596,24 +631,27 @@
         <v>18</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -622,10 +660,10 @@
         <v>999</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J5" s="1">
         <v>28</v>
@@ -635,6 +673,41 @@
       </c>
       <c r="L5" s="1">
         <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1999</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6">
+        <v>-10</v>
+      </c>
+      <c r="K6">
+        <v>-10</v>
+      </c>
+      <c r="L6">
+        <v>-10</v>
       </c>
     </row>
   </sheetData>
